--- a/SourceCode/ExcisePlaning/Contents/ReportTemplates/RptPlansIncomeOfYear.xlsx
+++ b/SourceCode/ExcisePlaning/Contents/ReportTemplates/RptPlansIncomeOfYear.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Environment_Owner\Developments\C#\ASP.NET\Planing-กรมสรรพสามิต\SourceCode\ExcisePlaning\Contents\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Environment_Owner\Developments\C#\ASP.NET\Planing-กรมสรรพสามิต\CSharpWebExcisePlaning\SourceCode\ExcisePlaning\Contents\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="792" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="สรุปคำของบประมาณ" sheetId="5" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">สรุปคำของบประมาณ!$3:$5</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -198,6 +201,15 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -206,15 +218,6 @@
     </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -521,6 +524,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -556,20 +562,20 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="7"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="51.6" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="8"/>
@@ -583,8 +589,8 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="79.2" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -596,8 +602,8 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="76.8" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -609,17 +615,17 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <f>SUM(C6:Z6)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -627,7 +633,7 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>